--- a/paper-case-studies/case-4/data/calibration_parameters.xlsx
+++ b/paper-case-studies/case-4/data/calibration_parameters.xlsx
@@ -37,7 +37,7 @@
     <t>^GSPC</t>
   </si>
   <si>
-    <t>2022-01-03</t>
+    <t>2018-10-01</t>
   </si>
 </sst>
 </file>
@@ -427,7 +427,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4766.18017578125</v>
+        <v>2913.97998046875</v>
       </c>
     </row>
     <row r="5" spans="1:2">
